--- a/chart1.xlsx
+++ b/chart1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="171">
   <si>
     <t>GOLD</t>
   </si>
@@ -527,67 +527,19 @@
     <t>cnin0770</t>
   </si>
   <si>
-    <t>gold\predicted</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>predicted</t>
-  </si>
-  <si>
-    <t>entertainment</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>public admin</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>scitech</t>
-  </si>
-  <si>
-    <t>transport</t>
-  </si>
-  <si>
-    <t>finance</t>
-  </si>
-  <si>
-    <t>hospitality</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>real estate</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
-    <t>pred total</t>
-  </si>
-  <si>
-    <t>gold total</t>
+    <t>* for every row, gold says A while pred says A and others</t>
+  </si>
+  <si>
+    <t>gold\pred</t>
+  </si>
+  <si>
+    <t>total gold</t>
+  </si>
+  <si>
+    <t>total pred</t>
   </si>
 </sst>
 </file>
@@ -641,11 +593,91 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -661,13 +693,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -953,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U151"/>
+  <dimension ref="A1:V151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -965,7 +1005,7 @@
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -973,7 +1013,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -984,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -995,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1006,7 +1046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1017,7 +1057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1028,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1039,58 +1079,58 @@
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1100,29 +1140,61 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8">
+      <c r="F8" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" s="7">
+        <f>SUM(F8:T8)</f>
+        <v>13</v>
+      </c>
+      <c r="V8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1132,29 +1204,61 @@
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9">
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" s="7">
+        <f t="shared" ref="U9:U22" si="0">SUM(F9:T9)</f>
+        <v>37</v>
+      </c>
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1164,29 +1268,61 @@
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10">
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1196,29 +1332,61 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11">
+      <c r="F11" s="6">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1228,29 +1396,61 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1260,29 +1460,61 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13">
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1292,29 +1524,61 @@
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14">
+      <c r="F14" s="6">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0</v>
+      </c>
+      <c r="S14" s="6">
+        <v>0</v>
+      </c>
+      <c r="T14" s="6">
+        <v>0</v>
+      </c>
+      <c r="U14" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1324,29 +1588,61 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15">
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1356,29 +1652,61 @@
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16">
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1388,29 +1716,61 @@
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17">
+      <c r="F17" s="6">
+        <v>0</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>0</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0</v>
+      </c>
+      <c r="S17" s="6">
+        <v>0</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1420,29 +1780,61 @@
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18">
+      <c r="E18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>21</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>0</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0</v>
+      </c>
+      <c r="T18" s="6">
+        <v>0</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1452,29 +1844,61 @@
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19">
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+      <c r="U19" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -1484,29 +1908,61 @@
       <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20">
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6">
+        <v>2</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+      <c r="U20" s="7">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1516,29 +1972,60 @@
       <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="E21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0</v>
+      </c>
+      <c r="U21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1548,29 +2035,61 @@
       <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22">
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="R22" s="6">
+        <v>2</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0</v>
+      </c>
+      <c r="T22" s="6">
+        <v>12</v>
+      </c>
+      <c r="U22" s="7">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1580,60 +2099,75 @@
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="8">
+        <f>SUM(F8:F22)</f>
         <v>13</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="8">
+        <f t="shared" ref="G23:P23" si="1">SUM(G8:G22)</f>
         <v>40</v>
       </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="8">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="8">
+        <f t="shared" ref="Q23" si="2">SUM(Q8:Q22)</f>
         <v>12</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="8">
+        <f t="shared" ref="R23" si="3">SUM(R8:R22)</f>
         <v>4</v>
       </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
+      <c r="S23" s="8">
+        <f t="shared" ref="S23" si="4">SUM(S8:S22)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="8">
+        <f t="shared" ref="T23" si="5">SUM(T8:T22)</f>
         <v>13</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="9">
         <f>(SUM(U8:U22)/SUM(F23:T23))*150</f>
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1644,7 +2178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1654,8 +2188,11 @@
       <c r="C25" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1666,7 +2203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1676,17 +2213,8 @@
       <c r="C27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H27" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>35</v>
       </c>
@@ -1696,21 +2224,9 @@
       <c r="C28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
-        <v>174</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28">
-        <v>13</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" ref="J28:J41" si="0">ABS(H28-I28)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>36</v>
       </c>
@@ -1720,21 +2236,9 @@
       <c r="C29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G29" t="s">
-        <v>169</v>
-      </c>
-      <c r="H29">
-        <v>37</v>
-      </c>
-      <c r="I29">
-        <v>40</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1744,21 +2248,9 @@
       <c r="C30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>173</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="I30">
-        <v>13</v>
-      </c>
-      <c r="J30" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>38</v>
       </c>
@@ -1768,21 +2260,9 @@
       <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31">
-        <v>3</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -1792,19 +2272,7 @@
       <c r="C32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G32" t="s">
-        <v>170</v>
-      </c>
-      <c r="H32">
-        <v>22</v>
-      </c>
-      <c r="I32">
-        <v>23</v>
-      </c>
-      <c r="J32" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -1816,19 +2284,7 @@
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G33" t="s">
-        <v>175</v>
-      </c>
-      <c r="H33">
-        <v>11</v>
-      </c>
-      <c r="I33">
-        <v>12</v>
-      </c>
-      <c r="J33" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -1840,19 +2296,7 @@
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G34" t="s">
-        <v>177</v>
-      </c>
-      <c r="H34">
-        <v>3</v>
-      </c>
-      <c r="I34">
-        <v>4</v>
-      </c>
-      <c r="J34" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -1864,19 +2308,7 @@
       <c r="C35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G35" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35">
-        <v>21</v>
-      </c>
-      <c r="I35">
-        <v>21</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
@@ -1888,19 +2320,7 @@
       <c r="C36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
-        <v>172</v>
-      </c>
-      <c r="H36">
-        <v>13</v>
-      </c>
-      <c r="I36">
-        <v>13</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1912,19 +2332,7 @@
       <c r="C37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G37" t="s">
-        <v>176</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>4</v>
-      </c>
-      <c r="J37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1936,19 +2344,7 @@
       <c r="C38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>179</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="I38">
-        <v>2</v>
-      </c>
-      <c r="J38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1960,19 +2356,7 @@
       <c r="C39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
-        <v>180</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1984,19 +2368,7 @@
       <c r="C40" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2008,19 +2380,7 @@
       <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G41" t="s">
-        <v>182</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
